--- a/Code/Results/Cases/Case_3_206/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_206/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.597553380687714</v>
+        <v>0.9899211372071477</v>
       </c>
       <c r="C2">
-        <v>0.6154904880436334</v>
+        <v>0.1900831602652886</v>
       </c>
       <c r="D2">
-        <v>0.3200421396876862</v>
+        <v>0.314089528842544</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9493612167379268</v>
+        <v>1.266215020791975</v>
       </c>
       <c r="G2">
-        <v>0.0007848138181682593</v>
+        <v>0.002425380193969275</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4437938406541093</v>
+        <v>0.3480526526176106</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6708915491603378</v>
+        <v>1.027120027740459</v>
       </c>
       <c r="O2">
-        <v>1.867189162353526</v>
+        <v>2.684521106378014</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.255810598910841</v>
+        <v>0.8894127075645315</v>
       </c>
       <c r="C3">
-        <v>0.5374222543076712</v>
+        <v>0.1659512469055073</v>
       </c>
       <c r="D3">
-        <v>0.2839180462241018</v>
+        <v>0.3058457757676223</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8706113232304489</v>
+        <v>1.257646374425207</v>
       </c>
       <c r="G3">
-        <v>0.0007895216623187825</v>
+        <v>0.002428501411045452</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3911360267260164</v>
+        <v>0.3365539059641662</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6856424426564018</v>
+        <v>1.034545729596829</v>
       </c>
       <c r="O3">
-        <v>1.732450183355809</v>
+        <v>2.677874033397018</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.046639407465193</v>
+        <v>0.8277868553781218</v>
       </c>
       <c r="C4">
-        <v>0.4895252668372905</v>
+        <v>0.1510883087238994</v>
       </c>
       <c r="D4">
-        <v>0.2620074462619044</v>
+        <v>0.3009149151776853</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8242568373855619</v>
+        <v>1.253240974212474</v>
       </c>
       <c r="G4">
-        <v>0.0007925039241899811</v>
+        <v>0.002430520183762171</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3594082244914318</v>
+        <v>0.3297037055855867</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.695720167376173</v>
+        <v>1.039560466073389</v>
       </c>
       <c r="O4">
-        <v>1.654472003686266</v>
+        <v>2.675772641069614</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.961528489359324</v>
+        <v>0.8026968103210379</v>
       </c>
       <c r="C5">
-        <v>0.4700090004246533</v>
+        <v>0.1450203189224339</v>
       </c>
       <c r="D5">
-        <v>0.2531401068928005</v>
+        <v>0.2989385378749176</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8058330800345459</v>
+        <v>1.251660590893081</v>
       </c>
       <c r="G5">
-        <v>0.0007937427919238216</v>
+        <v>0.002431368661690692</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3466158851158383</v>
+        <v>0.3269649046592065</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7000745485515765</v>
+        <v>1.041718604466091</v>
       </c>
       <c r="O5">
-        <v>1.623806739005914</v>
+        <v>2.67541310227486</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.947402556157726</v>
+        <v>0.7985320509225744</v>
       </c>
       <c r="C6">
-        <v>0.4667682677115863</v>
+        <v>0.1440120651267875</v>
       </c>
       <c r="D6">
-        <v>0.251671220581386</v>
+        <v>0.2986123569680359</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8028009540104932</v>
+        <v>1.251411136126976</v>
       </c>
       <c r="G6">
-        <v>0.0007939499436113856</v>
+        <v>0.002431511112150106</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3444995811411502</v>
+        <v>0.3265133091806689</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7008122928087701</v>
+        <v>1.042083885783804</v>
       </c>
       <c r="O6">
-        <v>1.618779575143662</v>
+        <v>2.67538337496498</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.04549110184945</v>
+        <v>0.8274483876023169</v>
       </c>
       <c r="C7">
-        <v>0.489262064123551</v>
+        <v>0.151006518720294</v>
       </c>
       <c r="D7">
-        <v>0.2618876177846374</v>
+        <v>0.3008881273752309</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8240065276352766</v>
+        <v>1.253218791132909</v>
       </c>
       <c r="G7">
-        <v>0.0007925205358320041</v>
+        <v>0.002430531521796231</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3592351669407918</v>
+        <v>0.3296665558810616</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6957779009735745</v>
+        <v>1.039589107371384</v>
       </c>
       <c r="O7">
-        <v>1.654054047733354</v>
+        <v>2.67576578213135</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.479559694555974</v>
+        <v>0.9552485054746853</v>
       </c>
       <c r="C8">
-        <v>0.588560307435614</v>
+        <v>0.1817721681154012</v>
       </c>
       <c r="D8">
-        <v>0.3075265695049154</v>
+        <v>0.3112199772188546</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.921770913522721</v>
+        <v>1.263082721881091</v>
       </c>
       <c r="G8">
-        <v>0.0007864183948119588</v>
+        <v>0.002426435198400644</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4255026938418922</v>
+        <v>0.3440442102001811</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6757602357033576</v>
+        <v>1.029585963221628</v>
       </c>
       <c r="O8">
-        <v>1.819693076031797</v>
+        <v>2.681817601116819</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.337889269016671</v>
+        <v>1.206513158375628</v>
       </c>
       <c r="C9">
-        <v>0.7839413342247781</v>
+        <v>0.241729171712052</v>
       </c>
       <c r="D9">
-        <v>0.3994793192604504</v>
+        <v>0.332516306200489</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.131104510884825</v>
+        <v>1.289234470364107</v>
       </c>
       <c r="G9">
-        <v>0.0007751534947890135</v>
+        <v>0.002419210660368432</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5609775667649046</v>
+        <v>0.3739126520952709</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.645037506096152</v>
+        <v>1.013578854709245</v>
       </c>
       <c r="O9">
-        <v>2.186249657166002</v>
+        <v>2.70944864490852</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.975734106130119</v>
+        <v>1.391479133488531</v>
       </c>
       <c r="C10">
-        <v>0.9284504629514458</v>
+        <v>0.2855414243141752</v>
       </c>
       <c r="D10">
-        <v>0.4690113411575965</v>
+        <v>0.3487926481312229</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.298289055155394</v>
+        <v>1.312628590024502</v>
       </c>
       <c r="G10">
-        <v>0.000767266448538084</v>
+        <v>0.002414390496834008</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6649825672153469</v>
+        <v>0.3968899363916449</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6283126826191534</v>
+        <v>1.004014243407198</v>
       </c>
       <c r="O10">
-        <v>2.487049147954195</v>
+        <v>2.739440311970327</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.268183993926982</v>
+        <v>1.475697572403419</v>
       </c>
       <c r="C11">
-        <v>0.9945396846415804</v>
+        <v>0.3054192072157775</v>
       </c>
       <c r="D11">
-        <v>0.5011886592282622</v>
+        <v>0.356333797319337</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.37789599579186</v>
+        <v>1.324185611464785</v>
       </c>
       <c r="G11">
-        <v>0.0007637537618768143</v>
+        <v>0.002412302498366371</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7135382730098172</v>
+        <v>0.4075700496539127</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6221298932631996</v>
+        <v>1.000139095005466</v>
       </c>
       <c r="O11">
-        <v>2.632196851174427</v>
+        <v>2.755206640767454</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.379320252579078</v>
+        <v>1.50759898494033</v>
       </c>
       <c r="C12">
-        <v>1.019629054525751</v>
+        <v>0.3129385890691196</v>
       </c>
       <c r="D12">
-        <v>0.5134625741499974</v>
+        <v>0.3592090720117369</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.4086107558485</v>
+        <v>1.328693978251664</v>
       </c>
       <c r="G12">
-        <v>0.000762433586736333</v>
+        <v>0.002411526804135547</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7321285227336176</v>
+        <v>0.4116472368073403</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6200078542310266</v>
+        <v>0.9987400498805528</v>
       </c>
       <c r="O12">
-        <v>2.688489790063841</v>
+        <v>2.761483546210314</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.355366589556013</v>
+        <v>1.500728033111386</v>
       </c>
       <c r="C13">
-        <v>1.014222607161003</v>
+        <v>0.3113195124575725</v>
       </c>
       <c r="D13">
-        <v>0.5108150297497502</v>
+        <v>0.3585889596363359</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.401969477990448</v>
+        <v>1.327717144705261</v>
       </c>
       <c r="G13">
-        <v>0.0007627174787486845</v>
+        <v>0.002411693198520847</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7281153259428237</v>
+        <v>0.4107676781172529</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6204548825649283</v>
+        <v>0.9990383181462192</v>
       </c>
       <c r="O13">
-        <v>2.676304758465648</v>
+        <v>2.760118048844788</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.277319010308418</v>
+        <v>1.478321933378083</v>
       </c>
       <c r="C14">
-        <v>0.9966024684935064</v>
+        <v>0.3060379915890223</v>
       </c>
       <c r="D14">
-        <v>0.5021965935692947</v>
+        <v>0.3565699554922048</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.38041115501818</v>
+        <v>1.324553870217258</v>
       </c>
       <c r="G14">
-        <v>0.0007636449546546964</v>
+        <v>0.002412238381757303</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.7150634822229591</v>
+        <v>0.4079048230010329</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6219508319096931</v>
+        <v>1.000022624278159</v>
       </c>
       <c r="O14">
-        <v>2.636800671817554</v>
+        <v>2.755716894842266</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.229565590777327</v>
+        <v>1.464598777902495</v>
       </c>
       <c r="C15">
-        <v>0.9858181909722248</v>
+        <v>0.3028018684239839</v>
       </c>
       <c r="D15">
-        <v>0.4969294766020482</v>
+        <v>0.3553358076812572</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.367282021710622</v>
+        <v>1.322633472282675</v>
       </c>
       <c r="G15">
-        <v>0.000764214338114312</v>
+        <v>0.002412574271531106</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.7070960859554702</v>
+        <v>0.4061555247056248</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.622896139948395</v>
+        <v>1.000634445572032</v>
       </c>
       <c r="O15">
-        <v>2.612780462683389</v>
+        <v>2.753061018742244</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.956673125662348</v>
+        <v>1.385976689908489</v>
       </c>
       <c r="C16">
-        <v>0.9241394701731451</v>
+        <v>0.2842412767238045</v>
       </c>
       <c r="D16">
-        <v>0.4669203520752774</v>
+        <v>0.34830256461575</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.293162936457136</v>
+        <v>1.311891756966858</v>
       </c>
       <c r="G16">
-        <v>0.0007674974559450849</v>
+        <v>0.0024145290534265</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6618363976355255</v>
+        <v>0.3961965572361095</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6287466202173064</v>
+        <v>1.004277065399769</v>
       </c>
       <c r="O16">
-        <v>2.477741810609473</v>
+        <v>2.73845277239576</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.789891879318475</v>
+        <v>1.337763262420083</v>
       </c>
       <c r="C17">
-        <v>0.8863999284607758</v>
+        <v>0.2728412361254868</v>
       </c>
       <c r="D17">
-        <v>0.4486579192465285</v>
+        <v>0.3440229126333918</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.248643425086314</v>
+        <v>1.305536686128079</v>
       </c>
       <c r="G17">
-        <v>0.0007695302415789105</v>
+        <v>0.002415755017593175</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6344062079067641</v>
+        <v>0.3901454452598898</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6327105903230716</v>
+        <v>1.006633541530242</v>
       </c>
       <c r="O17">
-        <v>2.397120316853744</v>
+        <v>2.730035724438864</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.694175309571165</v>
+        <v>1.310039449858493</v>
       </c>
       <c r="C18">
-        <v>0.8647254032022147</v>
+        <v>0.2662793003783577</v>
       </c>
       <c r="D18">
-        <v>0.4382046463931317</v>
+        <v>0.3415742666136907</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.223367709021304</v>
+        <v>1.301967509418589</v>
       </c>
       <c r="G18">
-        <v>0.0007707065734966553</v>
+        <v>0.002416470020694484</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6187445232033753</v>
+        <v>0.3866864238271717</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6351238085850923</v>
+        <v>1.008033714447784</v>
       </c>
       <c r="O18">
-        <v>2.351522746778926</v>
+        <v>2.725394209544106</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.661801854412715</v>
+        <v>1.300653932051148</v>
       </c>
       <c r="C19">
-        <v>0.8573919666811776</v>
+        <v>0.2640567045086755</v>
       </c>
       <c r="D19">
-        <v>0.4346737692152089</v>
+        <v>0.3407474148824861</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.214864893577953</v>
+        <v>1.30077382144114</v>
       </c>
       <c r="G19">
-        <v>0.0007711061069375409</v>
+        <v>0.002416713804213361</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6134608620930919</v>
+        <v>0.3855189333283562</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6359633514221912</v>
+        <v>1.008515482894367</v>
       </c>
       <c r="O19">
-        <v>2.336213212405141</v>
+        <v>2.723856941052219</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.807623694659299</v>
+        <v>1.342894920373851</v>
       </c>
       <c r="C20">
-        <v>0.8904139429063207</v>
+        <v>0.2740553029836406</v>
       </c>
       <c r="D20">
-        <v>0.4505966566707684</v>
+        <v>0.3444771547930543</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.25334796749658</v>
+        <v>1.306204281109231</v>
       </c>
       <c r="G20">
-        <v>0.0007693131161285201</v>
+        <v>0.002415623491713505</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6373140811479487</v>
+        <v>0.39078737884887</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6322747284984445</v>
+        <v>1.006378055285047</v>
       </c>
       <c r="O20">
-        <v>2.405621599652136</v>
+        <v>2.730911051226855</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.300232316575546</v>
+        <v>1.484902894454081</v>
       </c>
       <c r="C21">
-        <v>1.001776121467913</v>
+        <v>0.3075895194428995</v>
       </c>
       <c r="D21">
-        <v>0.5047255322798492</v>
+        <v>0.3571624545832606</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.3867274153137</v>
+        <v>1.325479415619284</v>
       </c>
       <c r="G21">
-        <v>0.0007633722677634818</v>
+        <v>0.002412077842060072</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7188914024797128</v>
+        <v>0.4087448201187271</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6215053655121849</v>
+        <v>0.9997316538922121</v>
       </c>
       <c r="O21">
-        <v>2.648366800044641</v>
+        <v>2.757001291037909</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.624497578427963</v>
+        <v>1.57776936533935</v>
       </c>
       <c r="C22">
-        <v>1.074930487976587</v>
+        <v>0.3294598487232179</v>
       </c>
       <c r="D22">
-        <v>0.5406265421309513</v>
+        <v>0.3655672640115597</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.477247975971679</v>
+        <v>1.33884626424387</v>
       </c>
       <c r="G22">
-        <v>0.0007595474625808799</v>
+        <v>0.002409847868112822</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7734046701745569</v>
+        <v>0.4206726389245574</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6157523812194796</v>
+        <v>0.9957864602204722</v>
       </c>
       <c r="O22">
-        <v>2.814829701028884</v>
+        <v>2.775840100163691</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.451196971547745</v>
+        <v>1.528200075303346</v>
       </c>
       <c r="C23">
-        <v>1.03584813226874</v>
+        <v>0.3177915817272776</v>
       </c>
       <c r="D23">
-        <v>0.5214137957607079</v>
+        <v>0.3610710361730582</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.428608356603391</v>
+        <v>1.331641586726533</v>
       </c>
       <c r="G23">
-        <v>0.0007615838207532702</v>
+        <v>0.002411030081983337</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7441916288585162</v>
+        <v>0.4142889646893053</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.618700221347062</v>
+        <v>0.9978556214225023</v>
       </c>
       <c r="O23">
-        <v>2.725223108810638</v>
+        <v>2.765621515968604</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.799606621714133</v>
+        <v>1.340574914132901</v>
       </c>
       <c r="C24">
-        <v>0.8885991379947313</v>
+        <v>0.2735064479437028</v>
       </c>
       <c r="D24">
-        <v>0.4497200108442314</v>
+        <v>0.3442717552046872</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.251220054156136</v>
+        <v>1.305902198424704</v>
       </c>
       <c r="G24">
-        <v>0.0007694112546332219</v>
+        <v>0.002415682922627063</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6359990961575903</v>
+        <v>0.3904970988770486</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6324713644461042</v>
+        <v>1.006493419179748</v>
       </c>
       <c r="O24">
-        <v>2.401775834832478</v>
+        <v>2.730514700684807</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.104641779852784</v>
+        <v>1.138473451142261</v>
       </c>
       <c r="C25">
-        <v>0.7309601585417909</v>
+        <v>0.2255503241127599</v>
       </c>
       <c r="D25">
-        <v>0.3742938082421148</v>
+        <v>0.3266443632966798</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.072327188735869</v>
+        <v>1.281427754380971</v>
       </c>
       <c r="G25">
-        <v>0.0007781296582650467</v>
+        <v>0.002421079078218608</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5236280476789119</v>
+        <v>0.3656519558440436</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6523716856565045</v>
+        <v>1.017523304407447</v>
       </c>
       <c r="O25">
-        <v>2.082021884591256</v>
+        <v>2.700277735398373</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_206/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_206/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9899211372071477</v>
+        <v>2.5975533806876</v>
       </c>
       <c r="C2">
-        <v>0.1900831602652886</v>
+        <v>0.6154904880436334</v>
       </c>
       <c r="D2">
-        <v>0.314089528842544</v>
+        <v>0.3200421396877431</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.266215020791975</v>
+        <v>0.9493612167379126</v>
       </c>
       <c r="G2">
-        <v>0.002425380193969275</v>
+        <v>0.0007848138181168422</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3480526526176106</v>
+        <v>0.4437938406541235</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.027120027740459</v>
+        <v>0.6708915491603378</v>
       </c>
       <c r="O2">
-        <v>2.684521106378014</v>
+        <v>1.867189162353526</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8894127075645315</v>
+        <v>2.255810598910955</v>
       </c>
       <c r="C3">
-        <v>0.1659512469055073</v>
+        <v>0.537422254307927</v>
       </c>
       <c r="D3">
-        <v>0.3058457757676223</v>
+        <v>0.2839180462241728</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.257646374425207</v>
+        <v>0.8706113232304489</v>
       </c>
       <c r="G3">
-        <v>0.002428501411045452</v>
+        <v>0.0007895216624021252</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3365539059641662</v>
+        <v>0.3911360267260307</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.034545729596829</v>
+        <v>0.6856424426563308</v>
       </c>
       <c r="O3">
-        <v>2.677874033397018</v>
+        <v>1.732450183355695</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8277868553781218</v>
+        <v>2.046639407465193</v>
       </c>
       <c r="C4">
-        <v>0.1510883087238994</v>
+        <v>0.4895252668369778</v>
       </c>
       <c r="D4">
-        <v>0.3009149151776853</v>
+        <v>0.2620074462619044</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.253240974212474</v>
+        <v>0.8242568373855619</v>
       </c>
       <c r="G4">
-        <v>0.002430520183762171</v>
+        <v>0.000792503924219166</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3297037055855867</v>
+        <v>0.3594082244914745</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.039560466073389</v>
+        <v>0.6957201673761801</v>
       </c>
       <c r="O4">
-        <v>2.675772641069614</v>
+        <v>1.654472003686266</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8026968103210379</v>
+        <v>1.961528489359353</v>
       </c>
       <c r="C5">
-        <v>0.1450203189224339</v>
+        <v>0.4700090004246533</v>
       </c>
       <c r="D5">
-        <v>0.2989385378749176</v>
+        <v>0.253140106892829</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.251660590893081</v>
+        <v>0.8058330800345175</v>
       </c>
       <c r="G5">
-        <v>0.002431368661690692</v>
+        <v>0.0007937427918434031</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3269649046592065</v>
+        <v>0.3466158851156962</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.041718604466091</v>
+        <v>0.7000745485515623</v>
       </c>
       <c r="O5">
-        <v>2.67541310227486</v>
+        <v>1.623806739005943</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7985320509225744</v>
+        <v>1.947402556157726</v>
       </c>
       <c r="C6">
-        <v>0.1440120651267875</v>
+        <v>0.4667682677113874</v>
       </c>
       <c r="D6">
-        <v>0.2986123569680359</v>
+        <v>0.2516712205815139</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.251411136126976</v>
+        <v>0.8028009540104932</v>
       </c>
       <c r="G6">
-        <v>0.002431511112150106</v>
+        <v>0.0007939499436641135</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3265133091806689</v>
+        <v>0.3444995811411644</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.042083885783804</v>
+        <v>0.7008122928087843</v>
       </c>
       <c r="O6">
-        <v>2.67538337496498</v>
+        <v>1.618779575143691</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8274483876023169</v>
+        <v>2.045491101849507</v>
       </c>
       <c r="C7">
-        <v>0.151006518720294</v>
+        <v>0.489262064123551</v>
       </c>
       <c r="D7">
-        <v>0.3008881273752309</v>
+        <v>0.2618876177845664</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.253218791132909</v>
+        <v>0.8240065276352766</v>
       </c>
       <c r="G7">
-        <v>0.002430531521796231</v>
+        <v>0.0007925205358327411</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3296665558810616</v>
+        <v>0.359235166940735</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.039589107371384</v>
+        <v>0.6957779009735248</v>
       </c>
       <c r="O7">
-        <v>2.67576578213135</v>
+        <v>1.654054047733297</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9552485054746853</v>
+        <v>2.479559694555917</v>
       </c>
       <c r="C8">
-        <v>0.1817721681154012</v>
+        <v>0.588560307435273</v>
       </c>
       <c r="D8">
-        <v>0.3112199772188546</v>
+        <v>0.3075265695047307</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.263082721881091</v>
+        <v>0.9217709135227068</v>
       </c>
       <c r="G8">
-        <v>0.002426435198400644</v>
+        <v>0.0007864183948371737</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3440442102001811</v>
+        <v>0.4255026938419348</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.029585963221628</v>
+        <v>0.6757602357033647</v>
       </c>
       <c r="O8">
-        <v>2.681817601116819</v>
+        <v>1.819693076031797</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.206513158375628</v>
+        <v>3.337889269016443</v>
       </c>
       <c r="C9">
-        <v>0.241729171712052</v>
+        <v>0.7839413342248065</v>
       </c>
       <c r="D9">
-        <v>0.332516306200489</v>
+        <v>0.3994793192603368</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.289234470364107</v>
+        <v>1.131104510884825</v>
       </c>
       <c r="G9">
-        <v>0.002419210660368432</v>
+        <v>0.0007751534947605522</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3739126520952709</v>
+        <v>0.5609775667649046</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.013578854709245</v>
+        <v>0.6450375060962088</v>
       </c>
       <c r="O9">
-        <v>2.70944864490852</v>
+        <v>2.186249657166059</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.391479133488531</v>
+        <v>3.975734106130233</v>
       </c>
       <c r="C10">
-        <v>0.2855414243141752</v>
+        <v>0.9284504629514174</v>
       </c>
       <c r="D10">
-        <v>0.3487926481312229</v>
+        <v>0.4690113411577101</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.312628590024502</v>
+        <v>1.298289055155394</v>
       </c>
       <c r="G10">
-        <v>0.002414390496834008</v>
+        <v>0.0007672664484781978</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3968899363916449</v>
+        <v>0.6649825672152474</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.004014243407198</v>
+        <v>0.6283126826191534</v>
       </c>
       <c r="O10">
-        <v>2.739440311970327</v>
+        <v>2.487049147954195</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.475697572403419</v>
+        <v>4.268183993926982</v>
       </c>
       <c r="C11">
-        <v>0.3054192072157775</v>
+        <v>0.994539684641552</v>
       </c>
       <c r="D11">
-        <v>0.356333797319337</v>
+        <v>0.5011886592281769</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.324185611464785</v>
+        <v>1.377895995791846</v>
       </c>
       <c r="G11">
-        <v>0.002412302498366371</v>
+        <v>0.0007637537619650509</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4075700496539127</v>
+        <v>0.7135382730097035</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.000139095005466</v>
+        <v>0.6221298932631996</v>
       </c>
       <c r="O11">
-        <v>2.755206640767454</v>
+        <v>2.632196851174371</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.50759898494033</v>
+        <v>4.379320252579134</v>
       </c>
       <c r="C12">
-        <v>0.3129385890691196</v>
+        <v>1.019629054525666</v>
       </c>
       <c r="D12">
-        <v>0.3592090720117369</v>
+        <v>0.5134625741498553</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.328693978251664</v>
+        <v>1.408610755848514</v>
       </c>
       <c r="G12">
-        <v>0.002411526804135547</v>
+        <v>0.0007624335867317295</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4116472368073403</v>
+        <v>0.7321285227336176</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9987400498805528</v>
+        <v>0.6200078542309697</v>
       </c>
       <c r="O12">
-        <v>2.761483546210314</v>
+        <v>2.688489790063841</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.500728033111386</v>
+        <v>4.35536658955607</v>
       </c>
       <c r="C13">
-        <v>0.3113195124575725</v>
+        <v>1.014222607161173</v>
       </c>
       <c r="D13">
-        <v>0.3585889596363359</v>
+        <v>0.5108150297496934</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.327717144705261</v>
+        <v>1.401969477990448</v>
       </c>
       <c r="G13">
-        <v>0.002411693198520847</v>
+        <v>0.0007627174787169632</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4107676781172529</v>
+        <v>0.7281153259427811</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9990383181462192</v>
+        <v>0.6204548825649354</v>
       </c>
       <c r="O13">
-        <v>2.760118048844788</v>
+        <v>2.676304758465591</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.478321933378083</v>
+        <v>4.277319010308361</v>
       </c>
       <c r="C14">
-        <v>0.3060379915890223</v>
+        <v>0.9966024684933075</v>
       </c>
       <c r="D14">
-        <v>0.3565699554922048</v>
+        <v>0.5021965935694084</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.324553870217258</v>
+        <v>1.380411155018166</v>
       </c>
       <c r="G14">
-        <v>0.002412238381757303</v>
+        <v>0.0007636449546868524</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4079048230010329</v>
+        <v>0.7150634822229733</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.000022624278159</v>
+        <v>0.6219508319097073</v>
       </c>
       <c r="O14">
-        <v>2.755716894842266</v>
+        <v>2.636800671817497</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.464598777902495</v>
+        <v>4.229565590777327</v>
       </c>
       <c r="C15">
-        <v>0.3028018684239839</v>
+        <v>0.9858181909720827</v>
       </c>
       <c r="D15">
-        <v>0.3553358076812572</v>
+        <v>0.4969294766020198</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.322633472282675</v>
+        <v>1.367282021710622</v>
       </c>
       <c r="G15">
-        <v>0.002412574271531106</v>
+        <v>0.000764214338118173</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4061555247056248</v>
+        <v>0.7070960859556266</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.000634445572032</v>
+        <v>0.6228961399484021</v>
       </c>
       <c r="O15">
-        <v>2.753061018742244</v>
+        <v>2.612780462683389</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.385976689908489</v>
+        <v>3.956673125662292</v>
       </c>
       <c r="C16">
-        <v>0.2842412767238045</v>
+        <v>0.9241394701729178</v>
       </c>
       <c r="D16">
-        <v>0.34830256461575</v>
+        <v>0.4669203520751068</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.311891756966858</v>
+        <v>1.293162936457136</v>
       </c>
       <c r="G16">
-        <v>0.0024145290534265</v>
+        <v>0.0007674974559144253</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3961965572361095</v>
+        <v>0.6618363976355397</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.004277065399769</v>
+        <v>0.6287466202173775</v>
       </c>
       <c r="O16">
-        <v>2.73845277239576</v>
+        <v>2.477741810609501</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.337763262420083</v>
+        <v>3.789891879318475</v>
       </c>
       <c r="C17">
-        <v>0.2728412361254868</v>
+        <v>0.8863999284607758</v>
       </c>
       <c r="D17">
-        <v>0.3440229126333918</v>
+        <v>0.4486579192465285</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.305536686128079</v>
+        <v>1.248643425086328</v>
       </c>
       <c r="G17">
-        <v>0.002415755017593175</v>
+        <v>0.000769530241578796</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3901454452598898</v>
+        <v>0.6344062079068493</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.006633541530242</v>
+        <v>0.6327105903231356</v>
       </c>
       <c r="O17">
-        <v>2.730035724438864</v>
+        <v>2.397120316853744</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.310039449858493</v>
+        <v>3.694175309570994</v>
       </c>
       <c r="C18">
-        <v>0.2662793003783577</v>
+        <v>0.8647254032022147</v>
       </c>
       <c r="D18">
-        <v>0.3415742666136907</v>
+        <v>0.438204646393018</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.301967509418589</v>
+        <v>1.223367709021318</v>
       </c>
       <c r="G18">
-        <v>0.002416470020694484</v>
+        <v>0.0007707065734944221</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3866864238271717</v>
+        <v>0.6187445232034321</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.008033714447784</v>
+        <v>0.635123808585135</v>
       </c>
       <c r="O18">
-        <v>2.725394209544106</v>
+        <v>2.351522746778869</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.300653932051148</v>
+        <v>3.661801854412886</v>
       </c>
       <c r="C19">
-        <v>0.2640567045086755</v>
+        <v>0.8573919666809786</v>
       </c>
       <c r="D19">
-        <v>0.3407474148824861</v>
+        <v>0.4346737692152374</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.30077382144114</v>
+        <v>1.214864893577968</v>
       </c>
       <c r="G19">
-        <v>0.002416713804213361</v>
+        <v>0.0007711061068780331</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3855189333283562</v>
+        <v>0.6134608620930493</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.008515482894367</v>
+        <v>0.6359633514221841</v>
       </c>
       <c r="O19">
-        <v>2.723856941052219</v>
+        <v>2.336213212405141</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.342894920373851</v>
+        <v>3.807623694659299</v>
       </c>
       <c r="C20">
-        <v>0.2740553029836406</v>
+        <v>0.8904139429060933</v>
       </c>
       <c r="D20">
-        <v>0.3444771547930543</v>
+        <v>0.4505966566706263</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.306204281109231</v>
+        <v>1.25334796749658</v>
       </c>
       <c r="G20">
-        <v>0.002415623491713505</v>
+        <v>0.0007693131161288579</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.39078737884887</v>
+        <v>0.6373140811478635</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.006378055285047</v>
+        <v>0.6322747284984516</v>
       </c>
       <c r="O20">
-        <v>2.730911051226855</v>
+        <v>2.405621599652164</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.484902894454081</v>
+        <v>4.300232316575546</v>
       </c>
       <c r="C21">
-        <v>0.3075895194428995</v>
+        <v>1.00177612146814</v>
       </c>
       <c r="D21">
-        <v>0.3571624545832606</v>
+        <v>0.5047255322799344</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.325479415619284</v>
+        <v>1.386727415313743</v>
       </c>
       <c r="G21">
-        <v>0.002412077842060072</v>
+        <v>0.0007633722677305999</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4087448201187271</v>
+        <v>0.7188914024797413</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9997316538922121</v>
+        <v>0.621505365512121</v>
       </c>
       <c r="O21">
-        <v>2.757001291037909</v>
+        <v>2.64836680004467</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.57776936533935</v>
+        <v>4.624497578427793</v>
       </c>
       <c r="C22">
-        <v>0.3294598487232179</v>
+        <v>1.07493048797653</v>
       </c>
       <c r="D22">
-        <v>0.3655672640115597</v>
+        <v>0.5406265421307808</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.33884626424387</v>
+        <v>1.477247975971679</v>
       </c>
       <c r="G22">
-        <v>0.002409847868112822</v>
+        <v>0.0007595474625807134</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4206726389245574</v>
+        <v>0.7734046701745569</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9957864602204722</v>
+        <v>0.6157523812194938</v>
       </c>
       <c r="O22">
-        <v>2.775840100163691</v>
+        <v>2.814829701028856</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.528200075303346</v>
+        <v>4.451196971547745</v>
       </c>
       <c r="C23">
-        <v>0.3177915817272776</v>
+        <v>1.035848132269081</v>
       </c>
       <c r="D23">
-        <v>0.3610710361730582</v>
+        <v>0.5214137957607363</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.331641586726533</v>
+        <v>1.428608356603391</v>
       </c>
       <c r="G23">
-        <v>0.002411030081983337</v>
+        <v>0.0007615838207248362</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4142889646893053</v>
+        <v>0.7441916288585588</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9978556214225023</v>
+        <v>0.6187002213470549</v>
       </c>
       <c r="O23">
-        <v>2.765621515968604</v>
+        <v>2.725223108810496</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.340574914132901</v>
+        <v>3.799606621713906</v>
       </c>
       <c r="C24">
-        <v>0.2735064479437028</v>
+        <v>0.888599137994504</v>
       </c>
       <c r="D24">
-        <v>0.3442717552046872</v>
+        <v>0.4497200108444019</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.305902198424704</v>
+        <v>1.251220054156136</v>
       </c>
       <c r="G24">
-        <v>0.002415682922627063</v>
+        <v>0.0007694112546332174</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3904970988770486</v>
+        <v>0.6359990961577751</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.006493419179748</v>
+        <v>0.6324713644461042</v>
       </c>
       <c r="O24">
-        <v>2.730514700684807</v>
+        <v>2.401775834832478</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.138473451142261</v>
+        <v>3.104641779852898</v>
       </c>
       <c r="C25">
-        <v>0.2255503241127599</v>
+        <v>0.7309601585418193</v>
       </c>
       <c r="D25">
-        <v>0.3266443632966798</v>
+        <v>0.3742938082421716</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.281427754380971</v>
+        <v>1.072327188735855</v>
       </c>
       <c r="G25">
-        <v>0.002421079078218608</v>
+        <v>0.0007781296582931962</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3656519558440436</v>
+        <v>0.5236280476789688</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.017523304407447</v>
+        <v>0.6523716856565045</v>
       </c>
       <c r="O25">
-        <v>2.700277735398373</v>
+        <v>2.0820218845912</v>
       </c>
     </row>
   </sheetData>
